--- a/Метод свертки.xlsx
+++ b/Метод свертки.xlsx
@@ -537,6 +537,24 @@
   <si>
     <t xml:space="preserve">
 Redmi Note</t>
+  </si>
+  <si>
+    <t>Redmi Note 12</t>
+  </si>
+  <si>
+    <t>6.67</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>POCO X5 Pro</t>
+  </si>
+  <si>
+    <t>Xiaomi POCO M5</t>
+  </si>
+  <si>
+    <t>2.4</t>
   </si>
 </sst>
 </file>
@@ -968,7 +986,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4" activeCellId="0"/>
+      <selection activeCell="M4" sqref="M4" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1032,7 +1050,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="B2" s="3">
         <v>201</v>
@@ -1073,84 +1091,84 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="B3" s="3">
-        <v>2.5</v>
+        <v>186</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="D3" s="3">
+        <v>120</v>
+      </c>
+      <c r="E3" s="3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3">
+        <v>256</v>
+      </c>
+      <c r="H3" s="3">
         <v>8</v>
       </c>
-      <c r="E3" s="3">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="I3" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="J3" s="3">
-        <v>230</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" s="3">
+        <v>5000</v>
       </c>
       <c r="L3" s="3">
-        <v>4810</v>
+        <v>21000</v>
       </c>
       <c r="M3" s="3">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>450</v>
+        <v>181</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="D4" s="3">
-        <v>7.2</v>
+        <v>120</v>
       </c>
       <c r="E4" s="3">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="F4" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>144</v>
+        <v>16</v>
+      </c>
+      <c r="G4" s="3">
+        <v>256</v>
+      </c>
+      <c r="H4" s="3">
+        <v>8</v>
       </c>
       <c r="I4" s="3">
-        <v>1.1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>150</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>145</v>
+        <v>8</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K4" s="3">
+        <v>5000</v>
       </c>
       <c r="L4" s="3">
-        <v>2830</v>
+        <v>32200</v>
       </c>
       <c r="M4" s="3">
-        <v>150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">

--- a/Метод свертки.xlsx
+++ b/Метод свертки.xlsx
@@ -555,6 +555,9 @@
   </si>
   <si>
     <t>2.4</t>
+  </si>
+  <si>
+    <t>Дисплей, дюйм</t>
   </si>
 </sst>
 </file>
@@ -985,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4" activeCellId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="M10" sqref="M10" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1015,7 +1018,7 @@
         <v>149</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>153</v>
@@ -1171,122 +1174,114 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="81">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="B7" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="10">
+        <v>9.1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>9.870000000000001</v>
+      </c>
+      <c r="D8" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4.63</v>
+      </c>
+      <c r="F8" s="10">
+        <v>3.13</v>
+      </c>
+      <c r="G8" s="10">
         <v>5</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="10">
-        <v>10</v>
-      </c>
-      <c r="C8" s="10">
-        <f>13*10/450</f>
-        <v>0.28888888888888886</v>
-      </c>
-      <c r="D8" s="10">
-        <f>7*10/8</f>
-        <v>8.75</v>
-      </c>
-      <c r="E8" s="10">
-        <f>2.5*10/13</f>
-        <v>1.9230769230769231</v>
-      </c>
-      <c r="F8" s="10">
-        <f>3*10/4</f>
+      <c r="H8" s="10">
         <v>7.5</v>
-      </c>
-      <c r="G8" s="10">
-        <v>10</v>
-      </c>
-      <c r="H8" s="10">
-        <v>9</v>
       </c>
       <c r="I8" s="10">
         <v>10</v>
       </c>
       <c r="J8" s="10">
-        <f>130*10/230</f>
-        <v>5.6521739130434785</v>
+        <v>7.86</v>
       </c>
       <c r="K8" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" s="10">
-        <f>2830*10/4680</f>
-        <v>6.047008547008547</v>
+        <v>10</v>
       </c>
       <c r="M8" s="10">
-        <v>5.56</v>
+        <v>10</v>
       </c>
       <c r="N8" s="9">
         <f>SUMPRODUCT(B8:M8,B$11:M$11)</f>
-        <v>7.473281122259382</v>
+        <v>6.5305</v>
       </c>
       <c r="O8">
         <f>SUMPRODUCT(B8:M8,B$11:M$11)</f>
-        <v>7.473281122259382</v>
+        <v>6.5305</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
+      <c r="A9" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B9" s="10">
-        <f>2.5*10/3</f>
-        <v>8.333333333333334</v>
+        <v>9.28</v>
       </c>
       <c r="C9" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D9" s="10">
         <v>10</v>
       </c>
       <c r="E9" s="10">
-        <f>4*10/13</f>
-        <v>3.076923076923077</v>
+        <v>4.63</v>
       </c>
       <c r="F9" s="10">
-        <v>10</v>
+        <v>6.84</v>
       </c>
       <c r="G9" s="10">
         <v>10</v>
@@ -1295,35 +1290,32 @@
         <v>10</v>
       </c>
       <c r="I9" s="10">
-        <f>1.3*10/1.6</f>
-        <v>8.125</v>
+        <v>10</v>
       </c>
       <c r="J9" s="10">
         <v>10</v>
       </c>
       <c r="K9" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L9" s="10">
-        <f>2830*10/4810</f>
-        <v>5.883575883575884</v>
+        <v>4.48</v>
       </c>
       <c r="M9" s="10">
-        <f>150*10/270</f>
-        <v>5.555555555555555</v>
+        <v>10</v>
       </c>
       <c r="N9" s="14">
         <f>SUMPRODUCT(B9:M9,B$11:M$11)</f>
-        <v>8.013943751443753</v>
+        <v>8.9712</v>
       </c>
       <c r="O9">
         <f>SUMPRODUCT(B9:M9,B$11:M$11)</f>
-        <v>8.013943751443753</v>
+        <v>8.9712</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
+      <c r="A10" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="B10" s="10">
         <v>10</v>
@@ -1332,47 +1324,42 @@
         <v>10</v>
       </c>
       <c r="D10" s="10">
-        <f>7.2*10/8</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="10">
         <v>10</v>
       </c>
       <c r="F10" s="10">
-        <f>3.6*10/4</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H10" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I10" s="10">
-        <f>1.1*10/1.6</f>
-        <v>6.875</v>
+        <v>10</v>
       </c>
       <c r="J10" s="10">
-        <f>150*10/230</f>
-        <v>6.521739130434782</v>
+        <v>8.57</v>
       </c>
       <c r="K10" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L10" s="10">
-        <v>10</v>
+        <v>2.21</v>
       </c>
       <c r="M10" s="10">
-        <f>10</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N10" s="9">
         <f>SUMPRODUCT(B10:M10,B$11:M$11)</f>
-        <v>4.694456521739131</v>
+        <v>9.0818</v>
       </c>
       <c r="O10">
         <f>SUMPRODUCT(B10:M10,B$11:M$11)</f>
-        <v>4.694456521739131</v>
+        <v>9.0818</v>
       </c>
     </row>
     <row r="11">
@@ -1419,36 +1406,36 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
+      <c r="A12" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="B12">
         <f>B8*B$11</f>
-        <v>0.1</v>
+        <v>9.1E-2</v>
       </c>
       <c r="C12">
         <f>C8*C$11</f>
-        <v>2.8888888888888888E-3</v>
+        <v>9.870000000000001E-2</v>
       </c>
       <c r="D12">
         <f>D8*D$11</f>
-        <v>8.750000000000001E-2</v>
+        <v>7.5E-2</v>
       </c>
       <c r="E12">
         <f>E8*E$11</f>
-        <v>0.15384615384615385</v>
+        <v>0.3704</v>
       </c>
       <c r="F12">
         <f>F8*F$11</f>
-        <v>0.75</v>
+        <v>0.313</v>
       </c>
       <c r="G12">
         <f>G8*G$11</f>
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H12">
         <f>H8*H$11</f>
-        <v>9E-2</v>
+        <v>7.5E-2</v>
       </c>
       <c r="I12">
         <f>I8*I$11</f>
@@ -1456,31 +1443,31 @@
       </c>
       <c r="J12">
         <f>J8*J$11</f>
-        <v>0.508695652173913</v>
+        <v>0.7074</v>
       </c>
       <c r="K12" s="11">
         <v>1</v>
       </c>
       <c r="L12">
         <f>L8*L$11</f>
-        <v>0.3023504273504274</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
         <f>M8*M$11</f>
-        <v>0.27799999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="N12" s="12">
         <f>PRODUCT(B12:M12)</f>
-        <v>4.714026358695652E-8</v>
+        <v>2.1753079458366852E-6</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
+      <c r="A13" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B13">
         <f>B9*B$11</f>
-        <v>8.333333333333334E-2</v>
+        <v>9.28E-2</v>
       </c>
       <c r="C13" s="11">
         <v>1</v>
@@ -1491,11 +1478,11 @@
       </c>
       <c r="E13">
         <f>E9*E$11</f>
-        <v>0.24615384615384617</v>
+        <v>0.3704</v>
       </c>
       <c r="F13">
         <f>F9*F$11</f>
-        <v>1</v>
+        <v>0.684</v>
       </c>
       <c r="G13">
         <f>G9*G$11</f>
@@ -1507,7 +1494,7 @@
       </c>
       <c r="I13">
         <f>I9*I$11</f>
-        <v>0.8125</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <f>J9*J$11</f>
@@ -1518,20 +1505,20 @@
       </c>
       <c r="L13">
         <f>L9*L$11</f>
-        <v>0.2941787941787942</v>
+        <v>0.22400000000000003</v>
       </c>
       <c r="M13">
         <f>M9*M$11</f>
-        <v>0.2777777777777778</v>
+        <v>0.5</v>
       </c>
       <c r="N13" s="15">
         <f>PRODUCT(B13:M13)</f>
-        <v>5.1481288981289E-5</v>
+        <v>9.953707592908803E-5</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
+      <c r="A14" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="B14">
         <f>B10*B$11</f>
@@ -1543,7 +1530,7 @@
       </c>
       <c r="D14">
         <f>D10*D$11</f>
-        <v>9E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E14">
         <f>E10*E$11</f>
@@ -1551,38 +1538,38 @@
       </c>
       <c r="F14">
         <f>F10*F$11</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G14" s="11">
         <v>1</v>
       </c>
       <c r="H14">
         <f>H10*H$11</f>
-        <v>8E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I14">
         <f>I10*I$11</f>
-        <v>0.6875</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <f>J10*J$11</f>
-        <v>0.5869565217391304</v>
+        <v>0.7713</v>
       </c>
       <c r="K14">
         <f>K10*K$11</f>
-        <v>0.35000000000000003</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="L14">
         <f>L10*L$11</f>
-        <v>0.5</v>
+        <v>0.1105</v>
       </c>
       <c r="M14">
         <f>M10*M$11</f>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="N14" s="12">
         <f>PRODUCT(B14:M14)</f>
-        <v>1.830423913043479E-6</v>
+        <v>4.772804400000003E-7</v>
       </c>
     </row>
   </sheetData>
